--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1284"/>
+  <dimension ref="A1:G1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30809,10 +30809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30846,10 +30844,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30883,10 +30879,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30920,10 +30914,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30957,10 +30949,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30990,10 +30980,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -31027,10 +31015,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31064,10 +31050,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31097,10 +31081,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31118,10 +31100,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31151,10 +31131,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31180,10 +31158,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31209,10 +31185,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31230,10 +31204,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31259,10 +31231,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31288,10 +31258,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31309,10 +31277,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31338,10 +31304,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31375,10 +31339,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31404,24 +31366,42 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Core PPI MoMMAR</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
@@ -31431,28 +31411,28 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Core PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31464,28 +31444,24 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>PPIMAR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>147.953</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>148.1</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31497,23 +31473,19 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
@@ -31530,19 +31502,19 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
@@ -31559,19 +31531,23 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -31583,74 +31559,66 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Fed Collins Speech</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1192" t="inlineStr"/>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Michigan Consumer Sentiment PrelAPR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Fed Collins Speech</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
@@ -31671,28 +31639,24 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31704,16 +31668,28 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Michigan Consumer Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>50.3</t>
+        </is>
+      </c>
       <c r="G1196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31725,19 +31701,23 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31754,23 +31734,19 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31782,59 +31758,43 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr"/>
+      <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
       <c r="D1200" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>489</t>
         </is>
       </c>
       <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr">
         <is>
           <t>3</t>
@@ -31844,78 +31804,58 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
       <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr"/>
       <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
+          <t>Sunday April 13 2025</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr"/>
       <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
+      <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1203" t="inlineStr"/>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
+          <t>Monday April 14 2025</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -31928,52 +31868,76 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsMAR</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>4.175%</t>
+        </is>
+      </c>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>4.000%</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -31983,89 +31947,81 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
+      <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:40 PM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
+      <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
+          <t>Tuesday April 15 2025</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr"/>
       <c r="C1210" t="inlineStr"/>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1210" t="inlineStr"/>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Export Prices MoMMAR</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1211" t="inlineStr">
         <is>
           <t>2</t>
@@ -32075,15 +32031,31 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Import Prices MoMMAR</t>
+        </is>
+      </c>
       <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
@@ -32093,19 +32065,19 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>NY Empire State Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -32122,24 +32094,24 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Export Prices YoYMAR</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32151,50 +32123,46 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Import Prices YoYMAR</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Redbook YoYAPR/12</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr"/>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -32204,26 +32172,22 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAR</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.945%</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1217" t="inlineStr"/>
       <c r="G1217" t="inlineStr">
         <is>
           <t>3</t>
@@ -32233,20 +32197,16 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
+      <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr">
@@ -32258,64 +32218,56 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>API Crude Oil Stock ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr"/>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>3.945%</t>
+          <t>-1.057M</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
+          <t>Wednesday April 16 2025</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr"/>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>MBA 30-Year Mortgage RateAPR/11</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="E1221" t="inlineStr"/>
@@ -32329,15 +32281,27 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsAPR/11</t>
+        </is>
+      </c>
       <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
       <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
@@ -32347,20 +32311,20 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>MBA Mortgage Market IndexAPR/11</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>292.3</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32372,13 +32336,13 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>961.4</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -32397,13 +32361,13 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>292.3</t>
+          <t>172.7</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -32417,50 +32381,58 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>961.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>172.7</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32472,13 +32444,13 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
@@ -32489,7 +32461,7 @@
       </c>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32501,24 +32473,24 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32530,77 +32502,77 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="G1232" t="inlineStr">
@@ -32617,24 +32589,24 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32646,19 +32618,19 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1234" t="inlineStr">
@@ -32675,19 +32647,19 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1235" t="inlineStr">
@@ -32699,58 +32671,58 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
       <c r="F1236" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32762,16 +32734,20 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1238" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -32779,33 +32755,29 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr"/>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2.553M</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1239" t="inlineStr"/>
       <c r="G1239" t="inlineStr">
         <is>
           <t>2</t>
@@ -32815,33 +32787,25 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1240" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-1.6M</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr"/>
+      <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -32853,20 +32817,20 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr"/>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>2.553M</t>
+          <t>0.36M</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32878,20 +32842,20 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr"/>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>-1.6M</t>
+          <t>0.681M</t>
         </is>
       </c>
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
       <c r="G1242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32903,13 +32867,13 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr"/>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>0.36M</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1243" t="inlineStr"/>
@@ -32928,13 +32892,13 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr"/>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>0.681M</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -32953,13 +32917,13 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr"/>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>-0.019M</t>
+          <t>-0.338M</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -32978,13 +32942,13 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr"/>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>-3.544M</t>
+          <t>-0.02M</t>
         </is>
       </c>
       <c r="E1246" t="inlineStr"/>
@@ -33003,13 +32967,13 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr"/>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>-0.338M</t>
+          <t>0.069M</t>
         </is>
       </c>
       <c r="E1247" t="inlineStr"/>
@@ -33023,18 +32987,18 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr"/>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>-0.02M</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E1248" t="inlineStr"/>
@@ -33048,43 +33012,39 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
+      <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr"/>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -33098,16 +33058,20 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>$-45.2B</t>
+        </is>
+      </c>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
       <c r="G1251" t="inlineStr">
@@ -33119,18 +33083,18 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr"/>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>4.632%</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -33149,106 +33113,114 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsFEB</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr"/>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>$-45.2B</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr"/>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
+      <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr"/>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr"/>
       <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
+      <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1255" t="inlineStr"/>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>1.459M</t>
+        </is>
+      </c>
       <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1256" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>Housing StartsMAR</t>
+        </is>
+      </c>
       <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>1.501M</t>
+        </is>
+      </c>
       <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
@@ -33258,24 +33230,24 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Building Permits PrelMAR</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr"/>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>1.459M</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>-4%</t>
         </is>
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -33287,24 +33259,24 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Housing StartsMAR</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr"/>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>1.501M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>1.42M</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -33316,21 +33288,17 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelMAR</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr"/>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
+      <c r="F1260" t="inlineStr"/>
       <c r="G1260" t="inlineStr">
         <is>
           <t>2</t>
@@ -33345,19 +33313,19 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Housing Starts MoMMAR</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G1261" t="inlineStr">
@@ -33374,20 +33342,24 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>1850K</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -33399,24 +33371,20 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -33428,17 +33396,17 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
       <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
+      <c r="F1264" t="inlineStr"/>
       <c r="G1264" t="inlineStr">
         <is>
           <t>3</t>
@@ -33453,11 +33421,15 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
       <c r="E1265" t="inlineStr"/>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
@@ -33474,13 +33446,13 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsAPR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr"/>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -33499,13 +33471,13 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr"/>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -33524,13 +33496,13 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentAPR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr"/>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -33544,18 +33516,18 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersAPR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr"/>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>57Bcf</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -33569,18 +33541,18 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr"/>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>48.30</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -33594,18 +33566,18 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr"/>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>57Bcf</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -33619,16 +33591,20 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>5.82%</t>
+        </is>
+      </c>
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr">
@@ -33640,16 +33616,20 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>6.62%</t>
+        </is>
+      </c>
       <c r="E1273" t="inlineStr"/>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr">
@@ -33661,18 +33641,18 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateAPR/17</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr"/>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -33686,20 +33666,16 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateAPR/17</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>6.62%</t>
-        </is>
-      </c>
+      <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr">
@@ -33716,15 +33692,11 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>5-Year TIPS Auction</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
+      <c r="D1276" t="inlineStr"/>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr">
@@ -33736,16 +33708,20 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>$6.73T</t>
+        </is>
+      </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr">
@@ -33757,53 +33733,41 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr"/>
       <c r="C1278" t="inlineStr"/>
       <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1278" t="inlineStr"/>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/16</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
+      <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
+          <t>Saturday April 19 2025</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -33816,28 +33780,20 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
+          <t>Sunday April 20 2025</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr"/>
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr"/>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1281" t="inlineStr"/>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
+          <t>Monday April 21 2025</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -33847,32 +33803,6 @@
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
     </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1319"/>
+  <dimension ref="A1:G1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32371,7 +32371,11 @@
           <t>Michigan Consumer Sentiment PrelAPR</t>
         </is>
       </c>
-      <c r="C1224" t="inlineStr"/>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="D1224" t="inlineStr">
         <is>
           <t>57.0</t>
@@ -32425,7 +32429,11 @@
           <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
         </is>
       </c>
-      <c r="C1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="D1226" t="inlineStr">
         <is>
           <t>4.1%</t>
@@ -32454,7 +32462,11 @@
           <t>Michigan Consumer Expectations PrelAPR</t>
         </is>
       </c>
-      <c r="C1227" t="inlineStr"/>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="D1227" t="inlineStr">
         <is>
           <t>52.6</t>
@@ -32487,7 +32499,11 @@
           <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
-      <c r="C1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="D1228" t="inlineStr">
         <is>
           <t>63.8</t>
@@ -32520,7 +32536,11 @@
           <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
-      <c r="C1229" t="inlineStr"/>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="D1229" t="inlineStr">
         <is>
           <t>5%</t>
@@ -33601,7 +33621,11 @@
           <t>39</t>
         </is>
       </c>
-      <c r="E1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="F1272" t="inlineStr">
         <is>
           <t>38</t>
@@ -34748,6 +34772,31 @@
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
     </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMMAR</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -32890,7 +32890,11 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="E1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1245" t="inlineStr">
         <is>
           <t>1.9%</t>
@@ -32919,7 +32923,11 @@
           <t>-20</t>
         </is>
       </c>
-      <c r="E1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>-14.8</t>
+        </is>
+      </c>
       <c r="F1246" t="inlineStr">
         <is>
           <t>-22</t>
@@ -34004,7 +34012,11 @@
           <t>$-45.2B</t>
         </is>
       </c>
-      <c r="E1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>$35.2B</t>
+        </is>
+      </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
@@ -34237,7 +34249,11 @@
           <t>223K</t>
         </is>
       </c>
-      <c r="E1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="F1296" t="inlineStr">
         <is>
           <t>227.0K</t>
@@ -34266,7 +34282,11 @@
           <t>12.5</t>
         </is>
       </c>
-      <c r="E1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
       <c r="F1297" t="inlineStr">
         <is>
           <t>10</t>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1320"/>
+  <dimension ref="A1:G1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34817,6 +34817,48 @@
         </is>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1322"/>
+  <dimension ref="A1:G1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32590,7 +32590,11 @@
           <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
-      <c r="C1231" t="inlineStr"/>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="D1231" t="inlineStr">
         <is>
           <t>489</t>
@@ -32615,7 +32619,11 @@
           <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
-      <c r="C1232" t="inlineStr"/>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
       <c r="D1232" t="inlineStr">
         <is>
           <t>590</t>
@@ -34664,7 +34672,11 @@
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="E1312" t="inlineStr"/>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr">
@@ -34685,7 +34697,11 @@
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
       <c r="E1313" t="inlineStr"/>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr">
@@ -34769,7 +34785,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
+          <t>Monday April 21 2025</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -34782,33 +34798,41 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMMAR</t>
+        </is>
+      </c>
       <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1319" t="inlineStr"/>
       <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D1320" t="inlineStr"/>
       <c r="E1320" t="inlineStr"/>
       <c r="F1320" t="inlineStr"/>
       <c r="G1320" t="inlineStr">
@@ -34825,7 +34849,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
@@ -34838,27 +34862,6 @@
         </is>
       </c>
     </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1321"/>
+  <dimension ref="A1:G1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34785,7 +34785,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
+          <t>Sunday April 20 2025</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -34798,41 +34798,33 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMMAR</t>
-        </is>
-      </c>
+          <t>Monday April 21 2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
       <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D1319" t="inlineStr"/>
       <c r="E1319" t="inlineStr"/>
       <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1319" t="inlineStr"/>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>CB Leading Index MoMMAR</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1320" t="inlineStr"/>
       <c r="F1320" t="inlineStr"/>
       <c r="G1320" t="inlineStr">
@@ -34849,7 +34841,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
@@ -34862,6 +34854,27 @@
         </is>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
